--- a/docs/eDNA/example_output/Results_rawreads_matrix.xlsx
+++ b/docs/eDNA/example_output/Results_rawreads_matrix.xlsx
@@ -1354,53 +1354,53 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Urophycis sp</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Red White or Spotted hake</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D39">
-        <v>1261</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1025</v>
+        <v>298</v>
       </c>
       <c r="F39">
-        <v>11</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Urophycis sp</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Red White or Spotted hake</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1261</v>
       </c>
       <c r="E40">
-        <v>298</v>
+        <v>1025</v>
       </c>
       <c r="F40">
-        <v>239</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/docs/eDNA/example_output/Results_rawreads_matrix.xlsx
+++ b/docs/eDNA/example_output/Results_rawreads_matrix.xlsx
@@ -101487,7 +101487,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Pig</t>
+          <t>Wild boar</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
